--- a/medicine/Psychotrope/Liste_des_cépages_par_climat/Liste_des_cépages_par_climat.xlsx
+++ b/medicine/Psychotrope/Liste_des_cépages_par_climat/Liste_des_cépages_par_climat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
+          <t>Liste_des_cépages_par_climat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
+          <t>Liste_des_cépages_par_climat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cépages rouges
-Aramon
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aramon
 Aubun (Coteaux du Languedoc)
 Cabernet franc (Bordeaux, Buzet, Touraine)
 Cabernet-sauvignon (Bordelais, Buzet, Madiran, Fronton, Touraine, Provence)
@@ -525,9 +542,43 @@
 Négrette (Fronton, Gaillac)
 Petit Verdot (Médoc)
 Romorantin (Cour-Cheverny, Valencay)
-Tannat (Béarn, Cahors, Madiran)
-Cépages blancs
-Chenin (Val de Loire, Limoux)
+Tannat (Béarn, Cahors, Madiran)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Climat océanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chenin (Val de Loire, Limoux)
 Colombard (Armagnac, Cognac, Bordeaux)
 Folle-Blanche (Armagnac, Cognac, Charentes)
 Jurançon (Armagnac, Cognac, Charentes)
@@ -541,34 +592,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Climat continental</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cépages rouges
-Diolinoir (Suisse, principalement en Valais)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Diolinoir (Suisse, principalement en Valais)
 Jurançon noir
 Pinot meunier (Champagne, Côtes de Toul)
 Mondeuse (Savoie, Bugey)
@@ -577,9 +633,43 @@
 Trousseau (Jura)
 Gamaret (Suisse)
 Garanoir (Suisse)
-Gamay (Beaujolais, pays de Loire, Savoie, Marmandais, Gaillac, Vaud, Valais)
-Cépages blancs
-Auxerrois (Alsace, Côtes de Toul, Côtes de Meuse, Coteaux de Coiffy, etc.)
+Gamay (Beaujolais, pays de Loire, Savoie, Marmandais, Gaillac, Vaud, Valais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Climat continental</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Auxerrois (Alsace, Côtes de Toul, Côtes de Meuse, Coteaux de Coiffy, etc.)
 Aligoté (Bourgogne, Beaujolais, Savoie)
 Chardonnay (Bourgogne, Beaujolais, Champagne, et beaucoup de crémants : Alsace, Savoie, Touraine)
 Chasselas (Alsace, Savoie, Vaud, Valais)
@@ -599,34 +689,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Climat méditerranéen</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cépages rouges
-Alicante Bouschet (Languedoc, Corse, cépage teinturier à jus rouge)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alicante Bouschet (Languedoc, Corse, cépage teinturier à jus rouge)
 Aubun (Coteaux du Languedoc)
 Cabernet-sauvignon (Provence)
 Carignan N (Languedoc-Roussillon, Provence, Corse, 1er cépage planté en France avec 170 000 ha)
@@ -642,9 +737,43 @@
 Téoulier (Provence)
 Terret noir (Provence, Languedoc)
 Picardan (Châteauneuf-du-Pape)
-Tempranillo (cépage rouge le plus planté en Espagne)
-Cépages blancs
-Bourboulenc (Provence, Languedoc)
+Tempranillo (cépage rouge le plus planté en Espagne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Climat méditerranéen</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bourboulenc (Provence, Languedoc)
 Grenache blanc (Provence, Languedoc, Roussillon)
 Maccabeu (Roussillon, Languedoc)
 Malvoisie (Méditerranée)
@@ -656,83 +785,231 @@
 Sémillon (Provence)
 Vermentino (Provence, Languedoc, Corse)
 Viognier (vallée du Rhône)
-Clairette (Méditerranée)
-Cépages de table
-Doukkala (Maroc)
+Clairette (Méditerranée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Climat méditerranéen</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cépages de table</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Doukkala (Maroc)
 Muscat du Ventoux (Vaucluse)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Climat équatorial</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cépages rouges
-Carignan (Rangiroa - Vin de Tahiti, Gabon)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carignan (Rangiroa - Vin de Tahiti, Gabon)
 Syrah (Gabon)
-Cépages blancs
-Muscat Petits Grains (Gabon)
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Climat équatorial</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscat Petits Grains (Gabon)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Climat montagnard</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cépages rouges
-Blaufränkisch
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Blaufränkisch
 Mollard (Hautes-alpes (IGP)
-Humagne rouge
-Cépages blancs
-Altesse (Roussette de Savoie)
+Humagne rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Climat montagnard</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Altesse (Roussette de Savoie)
 Jacquère (Vignoble de Savoie)
-Humagne blanche
-Cépages de table
+Humagne blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_climat</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_climat</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Climat montagnard</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cépages de table</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Portail de la vigne et du vin                     </t>
         </is>
       </c>
